--- a/case 7/files.xlsx
+++ b/case 7/files.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="27">
   <si>
     <t xml:space="preserve">Test Case No  </t>
   </si>
@@ -34,31 +34,67 @@
     <t xml:space="preserve"> Result </t>
   </si>
   <si>
-    <t>to add,delete,list,update contents in file</t>
-  </si>
-  <si>
-    <t>key=a</t>
-  </si>
-  <si>
-    <t>value=ravi</t>
-  </si>
-  <si>
-    <t>key=b</t>
-  </si>
-  <si>
-    <t>value=sudha</t>
-  </si>
-  <si>
-    <t>value=ramu</t>
-  </si>
-  <si>
-    <t>b              sudha</t>
-  </si>
-  <si>
-    <t>a                ramu</t>
-  </si>
-  <si>
     <t>PASS</t>
+  </si>
+  <si>
+    <t>add of records</t>
+  </si>
+  <si>
+    <t>delete</t>
+  </si>
+  <si>
+    <t>NotesProgram=D:\DominoServer\Domino</t>
+  </si>
+  <si>
+    <t>Directory=D:\DominoServer\Domino\server2\Data</t>
+  </si>
+  <si>
+    <t>KitType=2</t>
+  </si>
+  <si>
+    <t>InstallType=4</t>
+  </si>
+  <si>
+    <t>PartitionNumber=2</t>
+  </si>
+  <si>
+    <t>showControllerStatusWindow=0</t>
+  </si>
+  <si>
+    <t>key=NotesProgram</t>
+  </si>
+  <si>
+    <t>value=D:\DominoServer\Domino</t>
+  </si>
+  <si>
+    <t>key=Directory</t>
+  </si>
+  <si>
+    <t>value=D:\DominoServer\Domino\server2\Data</t>
+  </si>
+  <si>
+    <t>key=KitType</t>
+  </si>
+  <si>
+    <t>value=2</t>
+  </si>
+  <si>
+    <t>key=InstallType</t>
+  </si>
+  <si>
+    <t>value=4</t>
+  </si>
+  <si>
+    <t>key=PartitionNumber</t>
+  </si>
+  <si>
+    <t>key=showControllerStatusWindow</t>
+  </si>
+  <si>
+    <t>value=0</t>
+  </si>
+  <si>
+    <t>search</t>
   </si>
 </sst>
 </file>
@@ -408,19 +444,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="D5" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.28515625" customWidth="1"/>
     <col min="2" max="2" width="38" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="43.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="63.7109375" customWidth="1"/>
+    <col min="5" max="5" width="62.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -448,50 +484,176 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>10</v>
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>7</v>
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
         <v>11</v>
+      </c>
+      <c r="E20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
